--- a/data/Andante/gateway_structure.xlsx
+++ b/data/Andante/gateway_structure.xlsx
@@ -312,46 +312,46 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>ADMIN</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
     <t>BLOGGER</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>filterFactory</t>
   </si>
   <si>
     <t>org.springframework.cloud.gateway.filter.factory.TokenRelayGatewayFilterFactory</t>
   </si>
   <si>
+    <t>allowedMethods</t>
+  </si>
+  <si>
+    <t>allowedHeaders</t>
+  </si>
+  <si>
+    <t>exposedHeaders</t>
+  </si>
+  <si>
     <t>allowedOrigins</t>
   </si>
   <si>
-    <t>allowedHeaders</t>
-  </si>
-  <si>
-    <t>exposedHeaders</t>
-  </si>
-  <si>
-    <t>allowedMethods</t>
+    <t>ROLES</t>
   </si>
   <si>
     <t>REALM_ACCESS</t>
   </si>
   <si>
-    <t>ROLES</t>
+    <t>java.util.List</t>
   </si>
   <si>
     <t>disabledSecurityEndpoints</t>
-  </si>
-  <si>
-    <t>java.util.List</t>
   </si>
   <si>
     <t>jwkSetUri</t>
@@ -2670,10 +2670,10 @@
         <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -2712,10 +2712,10 @@
         <v>99</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2821,13 +2821,13 @@
         <v>73</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>108</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -2835,13 +2835,13 @@
         <v>73</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -2855,7 +2855,7 @@
         <v>17</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -2863,13 +2863,13 @@
         <v>73</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -2877,13 +2877,13 @@
         <v>73</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2891,13 +2891,13 @@
         <v>73</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -2905,13 +2905,13 @@
         <v>73</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>109</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>117</v>

--- a/data/Andante/gateway_structure.xlsx
+++ b/data/Andante/gateway_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="137">
   <si>
     <t>Class Name</t>
   </si>
@@ -315,15 +315,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>BLOGGER</t>
+  </si>
+  <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
-    <t>BLOGGER</t>
-  </si>
-  <si>
     <t>filterFactory</t>
   </si>
   <si>
@@ -333,31 +333,31 @@
     <t>allowedMethods</t>
   </si>
   <si>
+    <t>allowedOrigins</t>
+  </si>
+  <si>
     <t>allowedHeaders</t>
   </si>
   <si>
     <t>exposedHeaders</t>
   </si>
   <si>
-    <t>allowedOrigins</t>
-  </si>
-  <si>
     <t>ROLES</t>
   </si>
   <si>
     <t>REALM_ACCESS</t>
   </si>
   <si>
+    <t>keycloakRealmRoleConverter</t>
+  </si>
+  <si>
     <t>java.util.List</t>
   </si>
   <si>
+    <t>jwkSetUri</t>
+  </si>
+  <si>
     <t>disabledSecurityEndpoints</t>
-  </si>
-  <si>
-    <t>jwkSetUri</t>
-  </si>
-  <si>
-    <t>keycloakRealmRoleConverter</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -2107,7 +2107,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2151,7 +2151,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>129</v>
@@ -2162,21 +2162,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7">
@@ -2184,10 +2184,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
@@ -2195,10 +2195,10 @@
         <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
@@ -2206,7 +2206,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>131</v>
@@ -2217,7 +2217,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>131</v>
@@ -2228,7 +2228,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>131</v>
@@ -2239,7 +2239,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>131</v>
@@ -2250,7 +2250,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>131</v>
@@ -2261,7 +2261,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>131</v>
@@ -2272,7 +2272,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>131</v>
@@ -2283,7 +2283,7 @@
         <v>40</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>131</v>
@@ -2294,7 +2294,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>131</v>
@@ -2305,7 +2305,7 @@
         <v>40</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>131</v>
@@ -2313,54 +2313,54 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>131</v>
@@ -2368,65 +2368,65 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>131</v>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>131</v>
@@ -2448,9 +2448,86 @@
         <v>73</v>
       </c>
       <c r="B31" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="C38" t="s" s="0">
         <v>131</v>
       </c>
     </row>
@@ -2684,10 +2761,10 @@
         <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2712,10 +2789,10 @@
         <v>99</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -2821,13 +2898,13 @@
         <v>73</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -2835,13 +2912,13 @@
         <v>73</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
@@ -2849,13 +2926,13 @@
         <v>73</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
@@ -2863,13 +2940,13 @@
         <v>73</v>
       </c>
       <c r="B16" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>109</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
     <row r="17">
@@ -2877,13 +2954,13 @@
         <v>73</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -2891,13 +2968,13 @@
         <v>73</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>17</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -2911,7 +2988,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3126,7 +3203,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>117</v>
